--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>524600</v>
+      </c>
+      <c r="E8" s="3">
         <v>395600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>320000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>274800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>192800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>353300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>423100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E9" s="3">
         <v>129600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>138500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>185500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>384700</v>
+      </c>
+      <c r="E10" s="3">
         <v>266000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>235500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>181500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>160700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>77500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>176100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>237600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-610800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-662900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>47800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>69700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1564900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>46100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E15" s="3">
         <v>149700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>106000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>148200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>167700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>106700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>157800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>139900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E17" s="3">
         <v>-279500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-366300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>338200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>375000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>341400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1956800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>422700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E18" s="3">
         <v>675100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>741800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-148600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-376900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-139300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-51300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>57300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>37200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>685500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>796500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>177500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E22" s="3">
         <v>18900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="E23" s="3">
         <v>517000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>671300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-140000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-119000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E24" s="3">
         <v>65700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>171300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-70000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-47700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-247700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E26" s="3">
         <v>451300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-71300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E27" s="3">
         <v>451300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-71300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E32" s="3">
         <v>139300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>51300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-57300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-37200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E33" s="3">
         <v>451300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-71300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E35" s="3">
         <v>451300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-71300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,28 +1629,31 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E43" s="3">
         <v>205900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>240500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>196100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>179400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>233000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>188400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>211400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E44" s="3">
         <v>28500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E45" s="3">
         <v>58300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>123900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>460100</v>
+      </c>
+      <c r="E46" s="3">
         <v>292800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>261000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>267600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>342400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>344700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>347700</v>
       </c>
       <c r="K46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1841,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4915500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4816300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4071700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3361200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3352000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3553000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3531500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5301800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E52" s="3">
         <v>298400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>354800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>486900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>506800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>466700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>496200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>216700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5749600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5407500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4726500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4109100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4126400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4362100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4372300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5866100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E57" s="3">
         <v>346500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>312000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>297700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>246700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>309600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>441800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>312400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,124 +2157,139 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>531500</v>
+      </c>
+      <c r="E59" s="3">
         <v>181700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E60" s="3">
         <v>528200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>385300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>433100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>330900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>368400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>506300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>416200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1827400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1841500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1984200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2010400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2153200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2220700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2085300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2017700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1290800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1176000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>946500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>740200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>663200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>742300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>628400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>978900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4014300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3545700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3315900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3183700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3147300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3331400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3220000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3412800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2597800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1735400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1861800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1410600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>925400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>979100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1030700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1152300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2453300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E81" s="3">
         <v>451300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-71300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E83" s="3">
         <v>149700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>106000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>157800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E89" s="3">
         <v>253400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>119100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>135100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>278400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>220500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-122000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-187000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-117000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2997,19 +3231,22 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-17400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-97300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-159900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-83200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>118200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-104400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-85200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>745100</v>
+      </c>
+      <c r="E8" s="3">
         <v>524600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>395600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>375500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>320000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>274800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>192800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>353300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>423100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E9" s="3">
         <v>139900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>129600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>138500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>114100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>185500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>594500</v>
+      </c>
+      <c r="E10" s="3">
         <v>384700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>266000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>235500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>181500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>160700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>77500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>176100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>237600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +906,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-22200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-610800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-662900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>47800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>69700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1564900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E15" s="3">
         <v>167800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>149700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>106000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>148200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>167700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>106700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>157800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>139900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E17" s="3">
         <v>332500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-279500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-366300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>338200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>375000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>341400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1956800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>422700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>426100</v>
+      </c>
+      <c r="E18" s="3">
         <v>192100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>675100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>741800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-148600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-376900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-139300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-51300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>57300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>561700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>685500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>796500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>177500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E22" s="3">
         <v>18700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>397200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-203500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>517000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>671300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-140000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-119000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-56400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>171300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-70000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-47700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-247700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-147100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>451300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-57700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-69900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-71300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-147100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>451300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-57700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-69900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-71300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E32" s="3">
         <v>376900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>139300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>51300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-57300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-147100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>451300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-57700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-71300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-147100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>451300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-57700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-71300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1773,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>328600</v>
+      </c>
+      <c r="E43" s="3">
         <v>281600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>205900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>196100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>179400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>233000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>188400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>211400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E44" s="3">
         <v>22800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>21500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E45" s="3">
         <v>155800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>123900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>472800</v>
+      </c>
+      <c r="E46" s="3">
         <v>460100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>292800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>261000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>267600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>342400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>344700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>347700</v>
       </c>
       <c r="L46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,40 +1948,46 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5057500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4915500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4816300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4071700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3361200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3352000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3553000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3531500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5301800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E52" s="3">
         <v>374000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>298400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>354800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>486900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>506800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>466700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>496200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>216700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5905300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5749600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5407500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4726500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4109100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4126400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4362100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4372300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5866100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E57" s="3">
         <v>364500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>346500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>312000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>297700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>246700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>309600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>441800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>312400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,136 +2293,151 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306200</v>
+      </c>
+      <c r="E59" s="3">
         <v>531500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>181700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746800</v>
+      </c>
+      <c r="E60" s="3">
         <v>896000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>528200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>385300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>433100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>330900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>368400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>506300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>416200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1711800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1827400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1841500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1984200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2010400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2153200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2220700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2085300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2017700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1380600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1290800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1176000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>946500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>740200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>663200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>742300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>628400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>978900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3839200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4014300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3545700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3315900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3183700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3147300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3331400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3220000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3412800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2253600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2066100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1735400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1861800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1410600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>925400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>979100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1030700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1152300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2453300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-147100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>451300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-57700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-71300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E83" s="3">
         <v>167800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>149700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>167700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>106700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E89" s="3">
         <v>211500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>253400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>119100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>135100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>278400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>220500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-162900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-187000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3234,19 +3467,22 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-17400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-100300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-97300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-159900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-83200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-51200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>118200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-104400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-85200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>786600</v>
+      </c>
+      <c r="E8" s="3">
         <v>745100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>524600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>395600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>375500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>320000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>274800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>192800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>353300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>423100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E9" s="3">
         <v>150600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>139900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>129600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>138500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>114100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>185500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>626700</v>
+      </c>
+      <c r="E10" s="3">
         <v>594500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>384700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>266000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>235500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>181500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>160700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>77500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>176100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>237600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,78 +926,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-192100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-22200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-610800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-662900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>47800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>69700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1564900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E15" s="3">
         <v>148200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>167800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>149700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>106000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>148200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>167700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>106700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>157800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>139900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E17" s="3">
         <v>319000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>332500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-279500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-366300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>338200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>375000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1956800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>422700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>619200</v>
+      </c>
+      <c r="E18" s="3">
         <v>426100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>192100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>675100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>741800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-148600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-324100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-376900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-139300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-51300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-22300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E21" s="3">
         <v>561700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>685500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>796500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>45200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>177500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E22" s="3">
         <v>16300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E23" s="3">
         <v>397200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-203500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>517000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>671300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-140000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-119000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>52600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-56400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>171300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-70000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-47700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-247700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E26" s="3">
         <v>344600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-147100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>451300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-57700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-69900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-71300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E27" s="3">
         <v>344600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-147100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>451300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-57700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-69900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-71300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>324100</v>
+      </c>
+      <c r="E32" s="3">
         <v>12600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>376900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>139300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>51300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>22300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E33" s="3">
         <v>344600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-147100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>451300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-57700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-71300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E35" s="3">
         <v>344600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-147100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>451300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-57700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-71300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,148 +1866,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>396700</v>
+      </c>
+      <c r="E43" s="3">
         <v>328600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>281600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>205900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>240500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>196100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>179400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>233000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>211400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E44" s="3">
         <v>20100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E45" s="3">
         <v>118200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>155800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>123900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>551900</v>
+      </c>
+      <c r="E46" s="3">
         <v>472800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>460100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>292800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>261000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>267600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>342400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>344700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>347700</v>
       </c>
       <c r="M46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5175200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5057500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4915500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4816300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4071700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3361200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3352000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3553000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3531500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5301800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E52" s="3">
         <v>375000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>374000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>298400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>354800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>486900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>506800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>466700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>496200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>216700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6199100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5905300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5749600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5407500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4726500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4109100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4126400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4362100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4372300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5866100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E57" s="3">
         <v>440700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>364500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>346500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>312000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>297700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>246700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>309600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>441800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>312400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,148 +2430,163 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>655900</v>
+      </c>
+      <c r="E59" s="3">
         <v>306200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>531500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>181700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="E60" s="3">
         <v>746800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>896000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>528200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>385300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>433100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>330900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>368400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>506300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>416200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1436100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1711800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1827400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1841500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1984200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2010400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2153200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2220700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2085300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2017700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1379600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1380600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1290800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1176000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>946500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>740200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>663200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>742300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>628400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>978900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3870600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3839200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4014300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3545700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3315900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3183700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3147300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3331400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3220000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3412800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1979400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2328500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2066100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1735400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1861800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1410600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>925400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>979100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1030700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1152300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2453300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E81" s="3">
         <v>344600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-147100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>451300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-57700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-71300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E83" s="3">
         <v>148200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>167800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>149700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>167700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>106700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>341100</v>
+      </c>
+      <c r="E89" s="3">
         <v>250400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>211500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>253400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>119100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>135100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>278400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>220500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-134900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-162900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-187000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-117000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3470,19 +3704,22 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-97300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-231400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-159900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-83200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-51200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>118200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-104400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-85200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>838700</v>
+      </c>
+      <c r="E8" s="3">
         <v>786600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>745100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>524600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>395600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>320000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>274800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>192800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>353300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>423100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E9" s="3">
         <v>159900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>150600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>129600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>138500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>114100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>185500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>660700</v>
+      </c>
+      <c r="E10" s="3">
         <v>626700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>594500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>384700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>266000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>235500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>181500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>160700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>176100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>237600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-192100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-23900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-22200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-610800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-662900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>47800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>69700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1564900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>46100</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E15" s="3">
         <v>134200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>148200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>167800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>149700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>106000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>148200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>167700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>106700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>157800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>139900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>373700</v>
+      </c>
+      <c r="E17" s="3">
         <v>167400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>319000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>332500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-279500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-366300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>338200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>375000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>341400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1956800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>422700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E18" s="3">
         <v>619200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>426100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>192100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>675100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>741800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-148600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-324100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-376900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-139300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-51300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-22300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>57300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>659500</v>
+      </c>
+      <c r="E21" s="3">
         <v>429300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>561700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>685500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>796500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>45200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>177500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E22" s="3">
         <v>14800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E23" s="3">
         <v>280200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>397200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-203500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>517000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>671300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-140000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-119000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-56400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>171300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-70000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-47700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-247700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E26" s="3">
         <v>284000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>344600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-147100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>451300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-69900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E27" s="3">
         <v>284000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>344600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-147100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>451300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-57700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-69900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E32" s="3">
         <v>324100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>376900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>139300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>51300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>22300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-57300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E33" s="3">
         <v>284000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>344600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-147100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>451300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-57700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-69900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-71300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E35" s="3">
         <v>284000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>344600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-147100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>451300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-57700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-69900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-71300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,183 +1959,198 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>369400</v>
+      </c>
+      <c r="E43" s="3">
         <v>396700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>328600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>281600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>205900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>240500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>196100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>179400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>211400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E44" s="3">
         <v>23900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E45" s="3">
         <v>126800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>155800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>123900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>530100</v>
+      </c>
+      <c r="E46" s="3">
         <v>551900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>472800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>460100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>292800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>261000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>267600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>342400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>344700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>347700</v>
       </c>
       <c r="N46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>38100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2059,46 +2164,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5421300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5175200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5057500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4915500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4816300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4071700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3361200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3352000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3553000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3531500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5301800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E52" s="3">
         <v>472000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>375000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>374000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>298400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>354800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>486900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>506800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>466700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>496200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>216700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6281600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6199100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5905300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5749600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5407500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4726500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4109100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4126400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4362100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4372300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5866100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>422800</v>
+      </c>
+      <c r="E57" s="3">
         <v>398900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>440700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>364500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>346500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>312000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>297700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>246700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>309600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>441800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>312400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,160 +2567,175 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E59" s="3">
         <v>655900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>306200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>531500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>181700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>103800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>958700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1054900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>746800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>896000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>528200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>385300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>433100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>330900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>368400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>506300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>416200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1579300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1436100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1711800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1827400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1841500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1984200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2010400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2153200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2220700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2085300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2017700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1062100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1379600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1380600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1290800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1176000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>946500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>740200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>663200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>742300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>628400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>978900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3870600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3839200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4014300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3545700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3315900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3183700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3147300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3331400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3220000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3412800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1630900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2681500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2328500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2066100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1735400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1861800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1410600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>925400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>979100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1030700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1152300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2453300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E81" s="3">
         <v>284000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>344600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-147100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>451300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-57700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-69900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-71300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E83" s="3">
         <v>134200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>167800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>149700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>167700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>530400</v>
+      </c>
+      <c r="E89" s="3">
         <v>341100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>250400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>211500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>253400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>278400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>220500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-612600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-110300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-134900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-162900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-187000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-117000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3707,19 +3941,22 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-17400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-97300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-231400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-159900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-83200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>118200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-85200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>965300</v>
+      </c>
+      <c r="E8" s="3">
         <v>838700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>786600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>745100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>524600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>395600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>320000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>192800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>353300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>423100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E9" s="3">
         <v>178000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>159900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>150600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>129600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>138500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>185500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>755900</v>
+      </c>
+      <c r="E10" s="3">
         <v>660700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>626700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>594500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>384700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>266000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>235500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>181500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>176100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>237600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,81 +978,87 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-192100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-23900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-22200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-610800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-662900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>47800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>69700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1564900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>46100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E15" s="3">
         <v>140800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>134200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>148200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>167800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>149700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>106000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>167700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>106700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>157800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>139900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E17" s="3">
         <v>373700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>167400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>319000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>332500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-279500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-366300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>338200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>375000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1956800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>422700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>576800</v>
+      </c>
+      <c r="E18" s="3">
         <v>465000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>619200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>426100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>192100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>675100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>741800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-148600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="E20" s="3">
         <v>53700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-324100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-376900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-139300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-51300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>57300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>565900</v>
+      </c>
+      <c r="E21" s="3">
         <v>659500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>429300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>561700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>685500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>796500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>115800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E22" s="3">
         <v>21100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>411200</v>
+      </c>
+      <c r="E23" s="3">
         <v>497600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>280200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>397200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-203500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>517000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>671300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-140000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-119000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E24" s="3">
         <v>135000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-56400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>171300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-70000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-47700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-247700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E26" s="3">
         <v>362600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>284000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>344600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-147100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>451300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-57700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-69900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E27" s="3">
         <v>362600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>284000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>344600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-147100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>451300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-57700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-69900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-53700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>324100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>376900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>139300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>51300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-57300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E33" s="3">
         <v>362600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>284000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>344600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-147100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>451300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-57700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-69900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-71300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E35" s="3">
         <v>362600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>284000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>344600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-147100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>451300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-57700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-69900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-71300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,180 +2052,195 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>391200</v>
+      </c>
+      <c r="E43" s="3">
         <v>369400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>396700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>328600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>281600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>205900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>240500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>196100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>188400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>211400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E44" s="3">
         <v>25800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E45" s="3">
         <v>134200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>155800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>83100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>123900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>598500</v>
+      </c>
+      <c r="E46" s="3">
         <v>530100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>551900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>472800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>460100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>292800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>261000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>267600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>342400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>344700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>347700</v>
       </c>
       <c r="O46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E47" s="3">
         <v>38100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2152,8 +2257,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2167,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5646000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5421300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5175200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5057500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4915500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4816300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4071700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3361200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3352000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3553000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3531500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5301800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>316300</v>
+      </c>
+      <c r="E52" s="3">
         <v>292100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>472000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>375000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>374000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>298400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>354800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>486900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>466700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>496200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>216700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6608600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6281600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6199100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5905300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5749600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5407500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4726500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4109100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4126400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4362100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4372300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5866100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>444700</v>
+      </c>
+      <c r="E57" s="3">
         <v>422800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>398900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>440700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>364500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>346500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>312000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>297700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>246700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>309600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>441800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>312400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,172 +2704,187 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>542300</v>
+      </c>
+      <c r="E59" s="3">
         <v>535800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>655900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>306200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>531500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>181700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>103800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>987100</v>
+      </c>
+      <c r="E60" s="3">
         <v>958700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1054900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>746800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>896000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>528200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>385300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>433100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>330900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>506300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>416200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1463400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1579300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1436100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1711800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1827400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1841500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1984200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2010400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2153200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2220700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2085300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2017700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1062100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1379600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1380600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1290800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1176000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>946500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>740200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>663200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>742300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>628400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>978900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3718600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3870600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3839200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4014300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3545700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3315900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3183700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3147300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3331400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3220000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3412800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1383700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1630900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2889900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2681500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2328500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2066100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1735400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1861800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1410600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>925400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>979100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1030700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1152300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2453300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E81" s="3">
         <v>362600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>284000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>344600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-147100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>451300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-57700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-69900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-71300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E83" s="3">
         <v>140800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>134200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>149700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>106000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>167700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>447600</v>
+      </c>
+      <c r="E89" s="3">
         <v>530400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>341100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>250400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>253400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>119100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>135100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>278400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>220500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-612600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-110300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-134900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-162900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-187000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-117000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,13 +4147,14 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3944,19 +4178,22 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-17400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-100300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-97300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E100" s="3">
         <v>78500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-231400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-108000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-159900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-83200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>118200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-85200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>824600</v>
+      </c>
+      <c r="E8" s="3">
         <v>965300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>838700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>786600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>745100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>524600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>395600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>375500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>320000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>192800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>353300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>423100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E9" s="3">
         <v>209400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>178000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>159900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>150600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>129600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>138500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>177200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>185500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>638100</v>
+      </c>
+      <c r="E10" s="3">
         <v>755900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>660700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>626700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>594500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>384700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>266000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>235500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>77500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>176100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>237600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,84 +1000,90 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-192100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-23900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-22200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-610800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-662900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>47800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>69700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1564900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>46100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E15" s="3">
         <v>130200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>140800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>134200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>148200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>167800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>149700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>106000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>167700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>106700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>157800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>139900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E17" s="3">
         <v>388500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>373700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>167400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>319000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>332500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-279500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-366300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>338200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>375000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1956800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>422700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E18" s="3">
         <v>576800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>465000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>619200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>426100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>192100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>675100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>741800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-148600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>477200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-141200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>53700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-324100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-376900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-139300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>57300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1056400</v>
+      </c>
+      <c r="E21" s="3">
         <v>565900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>659500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>429300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>561700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>685500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>796500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E22" s="3">
         <v>24500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E23" s="3">
         <v>411200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>497600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>280200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>397200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-203500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>517000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>671300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-140000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-119000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E24" s="3">
         <v>140100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>135000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-56400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>171300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-70000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-47700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-247700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E26" s="3">
         <v>271100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>362600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>284000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>344600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-147100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>451300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-69900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E27" s="3">
         <v>271100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>362600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>284000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>344600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-147100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>451300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-57700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-69900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-477200</v>
+      </c>
+      <c r="E32" s="3">
         <v>141200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-53700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>324100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>376900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>139300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-57300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E33" s="3">
         <v>271100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>362600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>284000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>344600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-147100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>451300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-69900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E35" s="3">
         <v>271100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>362600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>284000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>344600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-147100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>451300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-69900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,195 +2144,210 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>373700</v>
+      </c>
+      <c r="E43" s="3">
         <v>391200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>369400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>396700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>328600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>281600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>205900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>240500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>196100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>179400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>233000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>188400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>211400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E44" s="3">
         <v>30800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>25800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E45" s="3">
         <v>168700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>126800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>155800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>123900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>714400</v>
+      </c>
+      <c r="E46" s="3">
         <v>598500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>530100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>551900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>472800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>460100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>292800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>261000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>267600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>342400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>344700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>347700</v>
       </c>
       <c r="P46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E47" s="3">
         <v>47800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>38100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2260,8 +2364,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5962100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5646000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5421300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5175200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5057500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4915500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4816300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4071700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3361200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3352000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3553000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3531500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5301800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E52" s="3">
         <v>316300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>292100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>472000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>375000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>374000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>298400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>354800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>486900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>506800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>466700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>496200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>216700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6991100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6608600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6281600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6199100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5905300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5749600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5407500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4726500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4109100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4126400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4362100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4372300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5866100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>481400</v>
+      </c>
+      <c r="E57" s="3">
         <v>444700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>422800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>398900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>440700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>364500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>346500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>312000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>297700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>246700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>309600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>441800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>312400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,184 +2840,199 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>410600</v>
+      </c>
+      <c r="E59" s="3">
         <v>542300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>535800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>655900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>306200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>531500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>181700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>103800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E60" s="3">
         <v>987100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>958700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1054900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>746800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>896000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>528200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>385300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>433100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>330900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>368400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>506300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>416200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1463400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1579300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1436100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1711800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1827400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1841500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1984200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2010400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2153200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2220700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2085300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2017700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1565100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1268100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1062100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1379600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1380600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1290800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1176000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>946500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>740200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>663200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>742300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>628400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>978900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3590000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3718600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3870600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3839200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4014300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3545700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3315900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3183700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3147300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3331400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3220000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3412800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1001700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1383700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1630900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3401100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2889900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2681500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2328500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2066100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1735400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1861800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1410600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>925400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>979100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1030700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1152300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2453300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E81" s="3">
         <v>271100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>362600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>284000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>344600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-147100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>451300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-69900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E83" s="3">
         <v>130200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>140800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>134200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>167800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>149700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>106000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>167700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>157800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>495200</v>
+      </c>
+      <c r="E89" s="3">
         <v>447600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>530400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>341100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>250400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>211500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>253400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>119100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>278400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>220500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-168100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-168300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-612600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-134900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-162900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-122000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-187000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-117000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,17 +4380,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4181,19 +4414,22 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-17400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-100300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-97300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-323000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-272500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>78500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-231400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-108000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-159900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-83200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>118200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-85200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E8" s="3">
         <v>824600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>965300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>838700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>786600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>745100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>524600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>395600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>375500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>320000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>192800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>353300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>423100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E9" s="3">
         <v>186500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>209400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>178000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>159900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>150600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>139900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>129600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>138500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>177200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>185500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>348600</v>
+      </c>
+      <c r="E10" s="3">
         <v>638100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>755900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>660700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>626700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>594500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>384700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>266000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>235500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>160700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>77500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>176100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>237600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-432600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1003,87 +1023,93 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-192100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-23900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-22200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-610800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-662900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>47800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>69700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1564900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>46100</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E15" s="3">
         <v>171900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>130200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>140800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>134200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>148200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>167800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>149700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>106000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>148200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>167700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>106700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>157800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>139900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>417300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>388500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>373700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>167400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>319000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>332500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-279500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-366300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>338200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>375000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>341400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1956800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>422700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>549500</v>
+      </c>
+      <c r="E18" s="3">
         <v>407300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>576800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>465000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>619200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>426100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>192100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>675100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>741800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-148600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E20" s="3">
         <v>477200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-141200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>53700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-324100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-376900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-139300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>57300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>557600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1056400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>565900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>659500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>429300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>561700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>685500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>796500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E22" s="3">
         <v>22500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>387600</v>
+      </c>
+      <c r="E23" s="3">
         <v>862000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>411200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>497600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>280200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>397200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-203500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>517000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>671300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-140000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-119000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>466600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>140100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>135000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-56400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>171300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-70000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-47700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-247700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E26" s="3">
         <v>395400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>271100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>362600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>284000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>344600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-147100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>451300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-57700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-69900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E27" s="3">
         <v>395400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>271100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>362600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>284000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>344600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-147100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>451300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-57700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-69900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-477200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>141200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-53700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>324100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>376900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>139300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-57300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E33" s="3">
         <v>395400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>271100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>362600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>284000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>344600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-147100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>451300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-57700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-69900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-71300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E35" s="3">
         <v>395400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>271100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>362600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>284000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>344600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-147100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>451300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-57700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-69900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-71300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,78 +2139,82 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E41" s="3">
         <v>13800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2147,210 +2237,225 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>334600</v>
+      </c>
+      <c r="E43" s="3">
         <v>373700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>391200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>369400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>396700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>328600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>281600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>205900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>240500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>196100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>179400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>211400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E44" s="3">
         <v>19700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E45" s="3">
         <v>307300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>168700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>126800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>155800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>83100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>123900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E46" s="3">
         <v>714400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>598500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>530100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>551900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>472800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>460100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>292800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>261000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>267600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>342400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>344700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>347700</v>
       </c>
       <c r="Q46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E47" s="3">
         <v>56400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2367,8 +2472,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6226800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5962100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5646000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5421300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5175200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5057500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4915500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4816300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4071700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3361200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3352000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3553000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3531500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5301800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E52" s="3">
         <v>258100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>316300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>292100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>472000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>375000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>374000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>298400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>486900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>506800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>466700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>496200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>216700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7285200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6991100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6608600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6281600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6199100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5905300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5749600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5407500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4726500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4109100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4126400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4362100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4372300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5866100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E57" s="3">
         <v>481400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>444700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>422800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>398900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>440700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>364500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>346500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>312000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>297700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>246700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>309600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>441800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>312400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,196 +2977,211 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564500</v>
+      </c>
+      <c r="E59" s="3">
         <v>410600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>542300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>535800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>655900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>306200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>531500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>181700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1034400</v>
+      </c>
+      <c r="E60" s="3">
         <v>892000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>987100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>958700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1054900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>746800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>896000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>528200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>385300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>433100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>330900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>368400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>506300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>416200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>979900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1132900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1463400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1579300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1436100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1711800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1827400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1841500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1984200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2010400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2153200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2220700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2085300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2017700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1491300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1565100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1268100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1062100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1379600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1380600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1290800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1176000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>946500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>740200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>663200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>742300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>628400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>978900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3505500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3590000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3718600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3870600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3839200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4014300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3545700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3315900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3183700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3147300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3331400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3220000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3412800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-626700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1001700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1383700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1630900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3779700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3401100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2889900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2681500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2328500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2066100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1735400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1861800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1410600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>925400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>979100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1030700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1152300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2453300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>380300</v>
+      </c>
+      <c r="E81" s="3">
         <v>395400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>271100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>362600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>284000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>344600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-147100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>451300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-57700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-69900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-71300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E83" s="3">
         <v>171900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>130200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>140800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>134200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>167800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>149700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>167700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>157800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E89" s="3">
         <v>495200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>447600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>530400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>341100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>250400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>211500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>253400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>278400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>220500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11500</v>
+        <v>-289000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6100</v>
+        <v>-172900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3700</v>
+        <v>-186200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-611000</v>
       </c>
       <c r="H91" s="3">
-        <v>-26800</v>
+        <v>-92100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-172700</v>
       </c>
       <c r="J91" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-168100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-168300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-612600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-134900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-162900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-97200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-122000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-187000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,20 +4614,21 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4417,19 +4651,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-17400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-100300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-323000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-272500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>78500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-231400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-159900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-83200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>118200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-85200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>462600</v>
+      </c>
+      <c r="E8" s="3">
         <v>534400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>824600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>965300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>838700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>786600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>745100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>524600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>395600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>375500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>320000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>274800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>192800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>353300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>423100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E9" s="3">
         <v>185800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>186500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>209400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>178000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>159900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>150600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>177200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>185500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E10" s="3">
         <v>348600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>638100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>755900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>660700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>626700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>594500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>384700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>266000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>160700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>77500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>176100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>237600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,17 +1025,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-432600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1026,90 +1046,96 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-192100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-23900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-610800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-662900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>47800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>69700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>46100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E15" s="3">
         <v>148100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>171900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>130200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>140800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>134200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>148200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>167800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>149700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>106000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>148200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>167700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>106700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>157800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>139900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>378900</v>
+      </c>
+      <c r="E17" s="3">
         <v>-15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>417300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>388500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>373700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>167400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>332500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-279500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-366300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>338200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>375000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1956800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>422700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E18" s="3">
         <v>549500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>407300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>576800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>465000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>619200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>426100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>192100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>675100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>741800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-148600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-140100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>477200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-141200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>53700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-324100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-376900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-139300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>57300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>355700</v>
+      </c>
+      <c r="E21" s="3">
         <v>557600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1056400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>565900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>659500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>429300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>561700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>685500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>796500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E22" s="3">
         <v>21900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E23" s="3">
         <v>387600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>862000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>411200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>497600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>280200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>397200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-203500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>517000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>671300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-140000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-119000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E24" s="3">
         <v>7200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>466600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>140100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>135000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-56400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>171300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-70000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-47700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-247700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E26" s="3">
         <v>380300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>395400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>271100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>362600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>284000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>344600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-147100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>451300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-69900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E27" s="3">
         <v>380300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>395400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>271100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>362600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>284000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>344600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-147100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>451300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-57700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-69900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="E32" s="3">
         <v>140100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-477200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>141200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-53700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>324100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>376900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>139300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E33" s="3">
         <v>380300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>395400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>271100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>362600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>284000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>344600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-147100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>451300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-69900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E35" s="3">
         <v>380300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>395400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>271100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>362600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>284000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>344600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-147100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>451300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-69900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,66 +2226,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E41" s="3">
         <v>99700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2216,8 +2306,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2240,225 +2330,240 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>287900</v>
+      </c>
+      <c r="E43" s="3">
         <v>334600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>373700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>391200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>369400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>396700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>328600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>281600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>205900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>240500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>196100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>179400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>188400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>211400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E44" s="3">
         <v>30700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>25800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E45" s="3">
         <v>388800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>307300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>168700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>126800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>155800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>58300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>83100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>123900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>743500</v>
+      </c>
+      <c r="E46" s="3">
         <v>854000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>714400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>598500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>530100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>551900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>472800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>460100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>292800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>261000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>267600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>342400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>344700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>347700</v>
       </c>
       <c r="R46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E47" s="3">
         <v>52100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2475,8 +2580,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6235400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6226800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5962100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5646000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5421300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5175200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5057500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4915500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4816300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4071700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3361200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3352000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3553000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3531500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5301800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E52" s="3">
         <v>152200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>258100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>316300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>292100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>472000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>375000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>298400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>486900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>506800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>466700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>496200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>216700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7180000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7285200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6991100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6608600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6281600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6199100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5905300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5749600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5407500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4726500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4109100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4126400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4362100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4372300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5866100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>428500</v>
+      </c>
+      <c r="E57" s="3">
         <v>469900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>481400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>444700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>422800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>398900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>440700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>364500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>346500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>312000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>297700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>246700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>309600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>441800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>312400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E59" s="3">
         <v>564500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>410600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>542300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>535800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>655900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>306200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>531500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>181700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>84200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>870800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1034400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>892000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>987100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>958700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1054900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>746800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>896000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>528200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>385300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>433100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>330900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>368400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>506300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>416200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>954700</v>
+      </c>
+      <c r="E61" s="3">
         <v>979900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1132900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1463400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1579300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1436100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1711800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1827400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1841500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1984200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2010400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2153200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2220700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2085300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2017700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1531500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1491300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1565100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1268100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1062100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1379600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1380600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1290800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1176000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>946500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>740200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>663200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>742300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>628400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>978900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3505500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3590000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3718600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3870600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3839200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4014300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3545700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3315900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3183700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3147300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3331400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3220000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3412800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-503500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-626700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1001700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1383700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1630900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3823000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3779700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3401100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2889900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2681500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2328500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2066100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1735400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1861800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1410600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>925400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>979100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1030700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1152300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2453300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E81" s="3">
         <v>380300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>395400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>271100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>362600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>284000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>344600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-147100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>451300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-69900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E83" s="3">
         <v>148100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>171900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>130200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>140800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>134200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>167800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>149700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>167700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>157800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E89" s="3">
         <v>388600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>495200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>447600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>530400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>341100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>250400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>211500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>253400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>135100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>278400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>220500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-289000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-172900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-186200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-611000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-92100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-172700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-158600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-168100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-168300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-612600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-110300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-134900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-162900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-122000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-187000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,23 +4848,24 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4654,19 +4888,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-17400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-97300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-194200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-323000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-272500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>78500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-231400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-108000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-159900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-83200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>118200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-85200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E102" s="3">
         <v>86000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>494600</v>
+      </c>
+      <c r="E8" s="3">
         <v>462600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>534400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>824600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>965300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>838700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>786600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>745100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>524600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>395600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>375500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>320000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>274800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>192800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>353300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>423100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>391900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E9" s="3">
         <v>175000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>185800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>186500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>209400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>178000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>159900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>150600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>115300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>177200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>185500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>146600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E10" s="3">
         <v>287600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>348600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>638100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>755900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>660700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>626700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>594500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>384700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>266000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>235500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>160700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>77500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>176100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>237600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,20 +1045,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-12500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-432600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1049,93 +1069,99 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-192100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-23900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-610800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-662900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>47800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>69700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1564900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>46100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E15" s="3">
         <v>154400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>148100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>171900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>130200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>140800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>134200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>167800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>149700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>106000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>148200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>167700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>106700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>157800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>139900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>404600</v>
+      </c>
+      <c r="E17" s="3">
         <v>378900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-15100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>417300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>388500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>373700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>167400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>332500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-279500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-366300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>338200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>375000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1956800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>422700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E18" s="3">
         <v>83700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>549500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>407300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>576800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>465000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>619200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>426100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>192100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>675100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>741800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-148600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1603500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>117700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-140100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>477200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-141200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>53700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-324100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-376900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-139300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>57300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E21" s="3">
         <v>355700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>557600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1056400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>565900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>659500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>429300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>561700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>685500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>796500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1388400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,158 +1434,167 @@
         <v>20200</v>
       </c>
       <c r="E22" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F22" s="3">
         <v>21900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E23" s="3">
         <v>181100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>387600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>862000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>411200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>497600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>280200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>397200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-203500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>517000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>671300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-52200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-140000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1566200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E24" s="3">
         <v>53200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>466600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>140100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>135000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-56400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>171300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-70000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-247700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E26" s="3">
         <v>127900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>380300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>395400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>271100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>362600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>284000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>344600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-147100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>451300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-69900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1318500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E27" s="3">
         <v>127900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>380300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>395400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>271100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>362600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>284000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>344600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-147100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>451300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-57700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-69900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1318500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-117700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>140100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-477200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>141200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-53700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>324100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>376900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>139300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-57300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E33" s="3">
         <v>127900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>380300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>395400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>271100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>362600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>284000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>344600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-147100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>451300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-69900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1318500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E35" s="3">
         <v>127900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>380300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>395400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>271100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>362600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>284000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>344600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-147100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>451300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-69900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1318500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,72 +2313,76 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>50600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>100</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2309,8 +2399,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2333,240 +2423,255 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E43" s="3">
         <v>287900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>334600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>373700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>391200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>369400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>396700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>328600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>281600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>205900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>196100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>179400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>233000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>188400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>211400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E44" s="3">
         <v>21300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>328600</v>
+      </c>
+      <c r="E45" s="3">
         <v>383600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>388800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>307300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>168700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>126800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>155800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>83100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>123900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>657300</v>
+      </c>
+      <c r="E46" s="3">
         <v>743500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>854000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>714400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>598500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>530100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>551900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>472800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>460100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>292800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>261000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>267600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>342400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>344700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>347700</v>
       </c>
       <c r="S46" s="3">
         <v>347700</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E47" s="3">
         <v>58600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>52100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>47800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>38100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2583,8 +2688,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6282900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6235400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6226800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5962100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5646000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5421300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5175200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5057500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4915500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4816300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4071700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3361200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3352000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3553000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3531500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5301800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5389800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E52" s="3">
         <v>142400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>152200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>258100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>316300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>292100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>472000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>375000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>298400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>354800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>486900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>506800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>466700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>496200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>216700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>221600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7161200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7180000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7285200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6991100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6608600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6281600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6199100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5905300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5749600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5407500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4726500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4109100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4126400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4362100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4372300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5866100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5959100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>368700</v>
+      </c>
+      <c r="E57" s="3">
         <v>428500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>469900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>481400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>444700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>422800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>398900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>440700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>364500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>346500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>312000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>297700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>309600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>441800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>312400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,220 +3251,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E59" s="3">
         <v>442200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>564500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>410600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>542300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>535800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>655900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>306200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>531500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>181700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>135500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>733400</v>
+      </c>
+      <c r="E60" s="3">
         <v>870800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1034400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>892000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>987100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>958700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1054900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>746800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>896000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>528200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>385300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>433100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>330900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>368400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>506300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>416200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>395100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1003300</v>
+      </c>
+      <c r="E61" s="3">
         <v>954700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>979900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1132900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1463400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1579300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1436100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1711800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1827400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1841500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1984200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2010400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2153200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2220700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2085300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2017700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2052800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1572100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1531500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1491300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1565100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1268100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1062100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1379600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1380600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1290800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1176000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>946500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>740200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>663200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>742300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>628400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>978900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>977200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3308800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3357000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3505500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3590000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3718600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3870600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3839200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4014300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3545700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3315900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3183700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3147300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3331400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3220000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3412800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3425100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-458100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-503500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-626700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1001700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1383700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1630900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1979400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2253600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2597800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2450700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2900000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3400000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3342200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3272300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3199600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1791000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1684500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3852400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3823000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3779700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3401100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2889900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2681500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2328500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2066100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1735400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1861800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1410600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>925400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>979100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1030700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1152300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2453300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2534100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E81" s="3">
         <v>127900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>380300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>395400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>271100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>362600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>284000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>344600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-147100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>451300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-69900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1318500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E83" s="3">
         <v>154400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>130200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>140800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>134200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>167800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>149700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>167700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>157800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E89" s="3">
         <v>173600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>388600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>495200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>447600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>530400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>341100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>250400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>211500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>253400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>135100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>93800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>278400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>220500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>228600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-169000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-289000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-172900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-186200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-611000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-172700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-158600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-170400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-164400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-168100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-168300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-612600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-110300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-134900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-162900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-187000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-117000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-164000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,26 +5082,27 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-10000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4891,19 +5125,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-100300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-97300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-98200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-194200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-323000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-272500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-231400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-108000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-159900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-83200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>118200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-85200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>86000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24800</v>
       </c>
     </row>
